--- a/all_models_summary.xlsx
+++ b/all_models_summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -29,7 +29,22 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Llama-3.1-8B-Instruct_cot_Any</t>
+    <t>Qwen3-8B_cot_64</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_128</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_256</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_512</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_1024</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_2048</t>
   </si>
   <si>
     <t>func_edu</t>
@@ -417,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,13 +457,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>0.930355</v>
+        <v>0.912573</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -456,13 +471,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>0.940057</v>
+        <v>0.882155</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -470,13 +485,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>0.9094370000000001</v>
+        <v>0.87086</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -484,13 +499,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>0.99279</v>
+        <v>0.9943149999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -498,13 +513,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>0.951207</v>
+        <v>0.954144</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -512,13 +527,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>0.988534</v>
+        <v>0.999494</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -526,13 +541,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>0.9967</v>
+        <v>0.999831</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -540,13 +555,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>0.866966</v>
+        <v>0.6497849999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -554,13 +569,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>0.943038</v>
+        <v>0.663293</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -568,13 +583,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>0.884827</v>
+        <v>0.8662879999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -582,13 +597,783 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>0.644526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>0.905737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0.868134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>0.830377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>0.9927240000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>0.957789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>0.999372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>0.999924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>0.650807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>0.658794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>0.882172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>0.665061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>0.9092249999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>0.891574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>0.854169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>0.99176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>0.9591730000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>0.998421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>0.999906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>0.6944900000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>0.665996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>0.881873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>0.688276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>0.967431</v>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>0.908768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>0.86447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>0.8623729999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>0.990601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>0.961246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>0.9984499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>0.999925</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>0.720086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>0.660824</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>0.850012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>0.763634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>0.858417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>0.8411729999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>0.838724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>0.973236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>0.9574279999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>0.998734</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>0.999712</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>0.64364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>0.664994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>0.843143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>0.779006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>0.7149759999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>0.806606</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>0.873242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>0.969661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>0.951676</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>0.999149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>0.999887</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>0.559271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>0.669534</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66">
+        <v>0.833389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67">
+        <v>0.79862</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -623,13 +1408,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>0.7363</v>
+        <v>0.829719</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -637,13 +1422,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>0.734428</v>
+        <v>0.833685</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -651,13 +1436,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>0.739452</v>
+        <v>0.829692</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -665,13 +1450,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>0.7977109999999999</v>
+        <v>0.848322</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -679,13 +1464,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>0.641448</v>
+        <v>0.785867</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -693,13 +1478,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>0.617654</v>
+        <v>0.755728</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -707,13 +1492,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>0.640823</v>
+        <v>0.790326</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -721,13 +1506,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>0.808713</v>
+        <v>0.842965</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -735,13 +1520,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>0.828142</v>
+        <v>0.858883</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -749,13 +1534,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>0.832514</v>
+        <v>0.840615</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -763,13 +1548,783 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>0.851438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>0.8340880000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0.831965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>0.834133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>0.849092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>0.792349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>0.755355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>0.797705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>0.844318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>0.853943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>0.839507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>0.851109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>0.833418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>0.83421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>0.832115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>0.848652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>0.790393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>0.759751</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>0.7912169999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>0.836222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>0.847928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>0.820882</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>0.832589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>0.805361</v>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>0.838019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>0.84426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>0.837803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>0.851923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>0.793999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>0.74244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>0.7864449999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>0.829103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>0.846643</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>0.797105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>0.828586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>0.81812</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>0.823762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>0.823762</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>0.843272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>0.744434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>0.728237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>0.776641</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>0.850641</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>0.856837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>0.838186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>0.845973</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>0.841538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>0.843005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>0.839403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>0.852815</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>0.824925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>0.750297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>0.7937340000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>0.767078</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>0.81756</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66">
+        <v>0.834091</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67">
+        <v>0.760943</v>
       </c>
     </row>
   </sheetData>

--- a/all_models_summary.xlsx
+++ b/all_models_summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="26">
   <si>
     <t>Model</t>
   </si>
@@ -29,22 +29,40 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Qwen3-8B_cot_64</t>
+    <t>Llama-3.1-8B-Instruct_cot_0.0</t>
   </si>
   <si>
-    <t>Qwen3-8B_cot_128</t>
+    <t>Llama-3.1-8B-Instruct_cot_0.2</t>
   </si>
   <si>
-    <t>Qwen3-8B_cot_256</t>
+    <t>Llama-3.1-8B-Instruct_cot_0.4</t>
   </si>
   <si>
-    <t>Qwen3-8B_cot_512</t>
+    <t>Llama-3.1-8B-Instruct_cot_0.6</t>
   </si>
   <si>
-    <t>Qwen3-8B_cot_1024</t>
+    <t>Llama-3.1-8B-Instruct_cot_0.8</t>
   </si>
   <si>
-    <t>Qwen3-8B_cot_2048</t>
+    <t>Llama-3.1-8B-Instruct_cot_1.0</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_0.0</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_0.2</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_0.4</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_0.6</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_0.8</t>
+  </si>
+  <si>
+    <t>Qwen3-8B_cot_1.0</t>
   </si>
   <si>
     <t>func_edu</t>
@@ -432,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,13 +475,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>0.912573</v>
+        <v>0.915234</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -471,13 +489,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0.882155</v>
+        <v>0.923723</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -485,13 +503,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>0.87086</v>
+        <v>0.909801</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -499,13 +517,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>0.9943149999999999</v>
+        <v>0.985538</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -513,13 +531,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>0.954144</v>
+        <v>0.92657</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -527,13 +545,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>0.999494</v>
+        <v>0.979959</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -541,13 +559,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>0.999831</v>
+        <v>0.99395</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -555,13 +573,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>0.6497849999999999</v>
+        <v>0.720896</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -569,13 +587,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>0.663293</v>
+        <v>0.843396</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -583,13 +601,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>0.8662879999999999</v>
+        <v>0.889967</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -597,13 +615,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>0.644526</v>
+        <v>0.911031</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -611,13 +629,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>0.905737</v>
+        <v>0.925519</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -625,13 +643,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>0.868134</v>
+        <v>0.929679</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -639,13 +657,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>0.830377</v>
+        <v>0.9094449999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -653,13 +671,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>0.9927240000000001</v>
+        <v>0.982468</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -667,13 +685,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>0.957789</v>
+        <v>0.911482</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -681,13 +699,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>0.999372</v>
+        <v>0.977332</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -695,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>0.999924</v>
+        <v>0.988789</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -709,13 +727,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>0.650807</v>
+        <v>0.794319</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -723,13 +741,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>0.658794</v>
+        <v>0.846839</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -737,13 +755,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>0.882172</v>
+        <v>0.812379</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -751,13 +769,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>0.665061</v>
+        <v>0.895527</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -765,13 +783,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>0.9092249999999999</v>
+        <v>0.886087</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -779,13 +797,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>0.891574</v>
+        <v>0.924033</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -793,13 +811,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>0.854169</v>
+        <v>0.918091</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -807,13 +825,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>0.99176</v>
+        <v>0.984344</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -821,13 +839,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>0.9591730000000001</v>
+        <v>0.9147</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -835,13 +853,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>0.998421</v>
+        <v>0.981791</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -849,13 +867,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>0.999906</v>
+        <v>0.992292</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -863,13 +881,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>0.6944900000000001</v>
+        <v>0.79315</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -877,13 +895,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>0.665996</v>
+        <v>0.7795609999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -891,13 +909,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>0.881873</v>
+        <v>0.786546</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -905,13 +923,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>0.688276</v>
+        <v>0.905688</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -919,13 +937,13 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>0.908768</v>
+        <v>0.895755</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -933,13 +951,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>0.86447</v>
+        <v>0.91417</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -947,13 +965,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>0.8623729999999999</v>
+        <v>0.888877</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -961,13 +979,13 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>0.990601</v>
+        <v>0.975098</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -975,13 +993,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>0.961246</v>
+        <v>0.905942</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -989,13 +1007,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>0.9984499999999999</v>
+        <v>0.974121</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1003,13 +1021,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>0.999925</v>
+        <v>0.992901</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1017,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>0.720086</v>
+        <v>0.801646</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1031,13 +1049,13 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>0.660824</v>
+        <v>0.770566</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1045,13 +1063,13 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>0.850012</v>
+        <v>0.83831</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1059,13 +1077,13 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>0.763634</v>
+        <v>0.9516250000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1073,13 +1091,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>0.858417</v>
+        <v>0.880858</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1087,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>0.8411729999999999</v>
+        <v>0.921861</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1101,13 +1119,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>0.838724</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1115,13 +1133,13 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>0.973236</v>
+        <v>0.984226</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1129,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D50">
-        <v>0.9574279999999999</v>
+        <v>0.913198</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1143,13 +1161,13 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>0.998734</v>
+        <v>0.975673</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1157,13 +1175,13 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>0.999712</v>
+        <v>0.99377</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1171,13 +1189,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>0.64364</v>
+        <v>0.843583</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1185,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>0.664994</v>
+        <v>0.886069</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1199,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>0.843143</v>
+        <v>0.897589</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1213,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>0.779006</v>
+        <v>0.960495</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1227,13 +1245,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>0.7149759999999999</v>
+        <v>0.9189619999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1241,13 +1259,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>0.806606</v>
+        <v>0.934511</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1255,13 +1273,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>0.873242</v>
+        <v>0.896045</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1269,13 +1287,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>0.969661</v>
+        <v>0.9825739999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1283,13 +1301,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>0.951676</v>
+        <v>0.9276720000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1297,13 +1315,13 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>0.999149</v>
+        <v>0.9813</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1311,13 +1329,13 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>0.999887</v>
+        <v>0.994401</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1325,13 +1343,13 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>0.559271</v>
+        <v>0.86834</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1339,13 +1357,13 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>0.669534</v>
+        <v>0.913114</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1353,13 +1371,13 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>0.833389</v>
+        <v>0.912354</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1367,13 +1385,937 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>0.9579029999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>0.753402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>0.818697</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70">
+        <v>0.8874069999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>0.982216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>0.958985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>0.998053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74">
+        <v>0.999905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>0.550436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>0.692599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>0.848073</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78">
+        <v>0.79886</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>0.71863</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>0.828611</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81">
+        <v>0.895191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <v>0.9789369999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>0.955521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>0.997282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <v>0.999431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>0.5268119999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87">
+        <v>0.677073</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88">
+        <v>0.864734</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>0.793592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>12</v>
       </c>
-      <c r="C67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67">
-        <v>0.79862</v>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>0.74407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>0.810036</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>0.902324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93">
+        <v>0.982778</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94">
+        <v>0.958697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95">
+        <v>0.997611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96">
+        <v>0.999842</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>0.528107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>0.686964</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>0.848907</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100">
+        <v>0.791879</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101">
+        <v>0.7269139999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>0.814562</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103">
+        <v>0.8957850000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104">
+        <v>0.980115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105">
+        <v>0.9562889999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>0.994251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107">
+        <v>0.999555</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108">
+        <v>0.5225379999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109">
+        <v>0.678204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110">
+        <v>0.844923</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111">
+        <v>0.79832</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112">
+        <v>0.746846</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>0.805047</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114">
+        <v>0.893306</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115">
+        <v>0.978928</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116">
+        <v>0.950964</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117">
+        <v>0.996108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118">
+        <v>0.999901</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119">
+        <v>0.550508</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120">
+        <v>0.6631359999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121">
+        <v>0.842905</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122">
+        <v>0.799555</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>0.767653</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>0.802573</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125">
+        <v>0.891624</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126">
+        <v>0.976153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>0.956537</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128">
+        <v>0.9975619999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129">
+        <v>0.999905</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130">
+        <v>0.5389620000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131">
+        <v>0.675384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132">
+        <v>0.858808</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133">
+        <v>0.799109</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +2325,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1408,13 +2350,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>0.829719</v>
+        <v>0.706794</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1422,13 +2364,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0.833685</v>
+        <v>0.685182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1436,13 +2378,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>0.829692</v>
+        <v>0.685182</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1450,13 +2392,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>0.848322</v>
+        <v>0.81098</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1464,13 +2406,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>0.785867</v>
+        <v>0.573874</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1478,13 +2420,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>0.755728</v>
+        <v>0.520844</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1492,13 +2434,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>0.790326</v>
+        <v>0.541787</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1506,13 +2448,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>0.842965</v>
+        <v>0.7858619999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1520,13 +2462,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>0.858883</v>
+        <v>0.849225</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1534,13 +2476,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>0.840615</v>
+        <v>0.852139</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1548,13 +2490,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>0.851438</v>
+        <v>0.791441</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1562,13 +2504,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>0.8340880000000001</v>
+        <v>0.745709</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1576,13 +2518,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>0.831965</v>
+        <v>0.748148</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1590,13 +2532,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>0.834133</v>
+        <v>0.748148</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1604,13 +2546,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>0.849092</v>
+        <v>0.81243</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1618,13 +2560,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>0.792349</v>
+        <v>0.594339</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1632,13 +2574,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>0.755355</v>
+        <v>0.552804</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1646,13 +2588,13 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>0.797705</v>
+        <v>0.546257</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1660,13 +2602,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>0.844318</v>
+        <v>0.844564</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1674,13 +2616,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>0.853943</v>
+        <v>0.847637</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1688,13 +2630,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>0.839507</v>
+        <v>0.851709</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1702,13 +2644,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>0.851109</v>
+        <v>0.837144</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1716,13 +2658,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>0.833418</v>
+        <v>0.702051</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1730,13 +2672,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>0.83421</v>
+        <v>0.684657</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1744,13 +2686,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>0.832115</v>
+        <v>0.686713</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1758,13 +2700,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>0.848652</v>
+        <v>0.804789</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1772,13 +2714,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>0.790393</v>
+        <v>0.620816</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1786,13 +2728,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>0.759751</v>
+        <v>0.584318</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1800,13 +2742,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>0.7912169999999999</v>
+        <v>0.596977</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1814,13 +2756,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>0.836222</v>
+        <v>0.834954</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1828,13 +2770,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>0.847928</v>
+        <v>0.843683</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1842,13 +2784,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>0.820882</v>
+        <v>0.852379</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1856,13 +2798,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>0.832589</v>
+        <v>0.828928</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1870,13 +2812,13 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>0.838019</v>
+        <v>0.727661</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1884,13 +2826,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>0.84426</v>
+        <v>0.714225</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1898,13 +2840,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>0.837803</v>
+        <v>0.714225</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1912,13 +2854,13 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>0.851923</v>
+        <v>0.77661</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1926,13 +2868,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>0.793999</v>
+        <v>0.6088440000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1940,13 +2882,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>0.74244</v>
+        <v>0.574126</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1954,13 +2896,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>0.7864449999999999</v>
+        <v>0.591574</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1968,13 +2910,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>0.829103</v>
+        <v>0.806707</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1982,13 +2924,13 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>0.846643</v>
+        <v>0.831928</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1996,13 +2938,13 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>0.797105</v>
+        <v>0.8276829999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2010,13 +2952,13 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>0.828586</v>
+        <v>0.789669</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2024,13 +2966,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>0.81812</v>
+        <v>0.714519</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2038,13 +2980,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>0.823762</v>
+        <v>0.714192</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2052,13 +2994,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>0.823762</v>
+        <v>0.706827</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2066,13 +3008,13 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>0.843272</v>
+        <v>0.7597699999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2080,13 +3022,13 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D50">
-        <v>0.744434</v>
+        <v>0.5695440000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2094,13 +3036,13 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>0.728237</v>
+        <v>0.5612740000000001</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2108,13 +3050,13 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>0.776641</v>
+        <v>0.589273</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2122,13 +3064,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>0.850641</v>
+        <v>0.782264</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2136,13 +3078,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>0.856837</v>
+        <v>0.779913</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2150,13 +3092,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>0.838186</v>
+        <v>0.799388</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2164,13 +3106,13 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>0.845973</v>
+        <v>0.770826</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2178,13 +3120,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>0.841538</v>
+        <v>0.6440129999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2192,13 +3134,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>0.843005</v>
+        <v>0.65618</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2206,13 +3148,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>0.839403</v>
+        <v>0.65618</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2220,13 +3162,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>0.852815</v>
+        <v>0.692778</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2234,13 +3176,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>0.824925</v>
+        <v>0.538019</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2248,13 +3190,13 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>0.750297</v>
+        <v>0.514966</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2262,13 +3204,13 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>0.7937340000000001</v>
+        <v>0.566209</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2276,13 +3218,13 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>0.767078</v>
+        <v>0.730988</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2290,13 +3232,13 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>0.81756</v>
+        <v>0.734286</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2304,13 +3246,13 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>0.834091</v>
+        <v>0.740751</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2318,13 +3260,937 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>0.708601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>0.766902</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>0.762985</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70">
+        <v>0.774303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>0.785901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>0.822639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>0.70122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74">
+        <v>0.760966</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>0.81346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>0.846242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>0.841246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78">
+        <v>0.812007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>0.804549</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>0.813375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81">
+        <v>0.808418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <v>0.818707</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>0.819375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>0.736166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <v>0.77802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>0.822223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87">
+        <v>0.852244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88">
+        <v>0.844056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>0.822807</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>12</v>
       </c>
-      <c r="C67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67">
-        <v>0.760943</v>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>0.826396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>0.838662</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>0.832893</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93">
+        <v>0.844784</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94">
+        <v>0.823827</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95">
+        <v>0.753699</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96">
+        <v>0.797395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>0.846109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>0.866746</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>0.8587939999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100">
+        <v>0.8333930000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101">
+        <v>0.834016</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>0.828852</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103">
+        <v>0.829515</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104">
+        <v>0.843526</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105">
+        <v>0.820887</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>0.759609</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107">
+        <v>0.787582</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108">
+        <v>0.836453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109">
+        <v>0.859935</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110">
+        <v>0.8448870000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111">
+        <v>0.833143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112">
+        <v>0.831407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>0.830722</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114">
+        <v>0.83378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115">
+        <v>0.839016</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116">
+        <v>0.8140770000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117">
+        <v>0.750702</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118">
+        <v>0.785011</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119">
+        <v>0.8166369999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120">
+        <v>0.848925</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121">
+        <v>0.833279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122">
+        <v>0.8084</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>0.811472</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>0.814538</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125">
+        <v>0.798318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126">
+        <v>0.832932</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>0.805189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128">
+        <v>0.748011</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129">
+        <v>0.787018</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130">
+        <v>0.798526</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131">
+        <v>0.8306750000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132">
+        <v>0.831676</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133">
+        <v>0.794044</v>
       </c>
     </row>
   </sheetData>
